--- a/Financials/Adyen.xlsx
+++ b/Financials/Adyen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B3F20E-160D-F648-A129-5297EF6228BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07EC0E9-431C-C848-9411-9166D768A590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="500" windowWidth="36820" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -854,7 +854,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -990,6 +990,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1073,7 +1087,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1362,12 +1376,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1564,9 +1593,6 @@
     <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="21" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1587,9 +1613,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="12" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1651,6 +1674,18 @@
     <xf numFmtId="2" fontId="4" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -1684,8 +1719,11 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1723,6 +1761,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1740,7 +1779,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1752,6 +1791,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1879,11 +1919,11 @@
     <v>Powered by Refinitiv</v>
     <v>18.690000000000001</v>
     <v>6.55</v>
-    <v>1.5694999999999999</v>
-    <v>0.45</v>
-    <v>4.6875E-2</v>
-    <v>-0.01</v>
-    <v>-9.9500000000000001E-4</v>
+    <v>1.877</v>
+    <v>0.15</v>
+    <v>1.2886999999999999E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3883</v>
@@ -1891,24 +1931,24 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>10.28</v>
+    <v>11.81</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45240.048611111109</v>
+    <v>45262.048611111109</v>
     <v>0</v>
-    <v>9.8800000000000008</v>
-    <v>21580620000</v>
+    <v>11.6</v>
+    <v>33222430000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>9.94</v>
-    <v>9.6</v>
-    <v>10.050000000000001</v>
-    <v>10.039999999999999</v>
+    <v>11.63</v>
+    <v>11.64</v>
+    <v>11.79</v>
+    <v>11.79</v>
     <v>31020010</v>
     <v>ADYEY</v>
     <v>Adyen NV (OTCM:ADYEY)</v>
-    <v>4446637</v>
-    <v>110570</v>
+    <v>787433</v>
+    <v>78640</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1932,9 +1972,9 @@
     <v>Powered by Refinitiv</v>
     <v>1699.2</v>
     <v>602.79999999999995</v>
-    <v>1.5694999999999999</v>
-    <v>263.10000000000002</v>
-    <v>0.37817999999999996</v>
+    <v>1.877</v>
+    <v>11.8</v>
+    <v>1.1017999999999998E-2</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3883</v>
@@ -1942,24 +1982,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>963.8</v>
+    <v>1096.8</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45239.708333333336</v>
+    <v>45261.708333333336</v>
     <v>3</v>
-    <v>881.2</v>
-    <v>21580620000</v>
+    <v>1072</v>
+    <v>33222430000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>950</v>
-    <v>52.675199999999997</v>
-    <v>695.7</v>
-    <v>958.8</v>
+    <v>1072</v>
+    <v>58.839399999999998</v>
+    <v>1071</v>
+    <v>1082.8</v>
     <v>31020010</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>802956</v>
-    <v>110570</v>
+    <v>72888</v>
+    <v>78640</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1977,20 +2017,17 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>1.0101</v>
+    <v>0.97170000000000001</v>
     <v>0.88670000000000004</v>
-    <v>-2.0000000000000001E-4</v>
-    <v>-2.1340000000000001E-4</v>
+    <v>2.9999999999999997E-4</v>
+    <v>3.2669999999999997E-4</v>
     <v>EUR</v>
     <v>USD</v>
-    <v>0.93769999999999998</v>
     <v>Currency Pair</v>
-    <v>45240.207835648151</v>
-    <v>0.93679999999999997</v>
+    <v>45261.916666666664</v>
     <v>US Dollar/Euro FX Cross Rate</v>
-    <v>0.93740000000000001</v>
-    <v>0.93720000000000003</v>
-    <v>0.93700000000000006</v>
+    <v>0.91839999999999999</v>
+    <v>0.91869999999999996</v>
     <v>USDEUR</v>
     <v>USD/EUR</v>
   </rv>
@@ -2117,12 +2154,9 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
-    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
-    <k n="Low"/>
     <k n="Name" t="s"/>
-    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -2224,7 +2258,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="27">
+    <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2242,9 +2276,6 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2346,10 +2377,7 @@
       <v>1</v>
     </spb>
     <spb s="9">
-      <v>10</v>
-      <v>10</v>
       <v>3</v>
-      <v>10</v>
       <v>10</v>
       <v>10</v>
       <v>5</v>
@@ -2454,10 +2482,7 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
     <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -2857,9 +2882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12015,7 +12040,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12023,48 +12048,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="e" vm="2">
+    <row r="1" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-    </row>
-    <row r="2" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+    </row>
+    <row r="2" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>21580620000</v>
+        <v>33222430000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>197</v>
@@ -12084,15 +12109,15 @@
         <v>199</v>
       </c>
       <c r="G3" s="39">
-        <f>AVERAGE(Financials!G129:K129)</f>
-        <v>1.011263015278363E-2</v>
+        <f>AVERAGE(Financials!J129:O129)</f>
+        <v>2.891093983253083E-4</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>200</v>
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>34153620739.61414</v>
+        <v>21828403908.421284</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>201</v>
@@ -12105,10 +12130,10 @@
         <v>202</v>
       </c>
       <c r="M3" s="44"/>
-      <c r="N3" s="116" t="s">
+      <c r="N3" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="O3" s="117"/>
+      <c r="O3" s="119"/>
       <c r="P3" s="44"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -12135,30 +12160,30 @@
       </c>
       <c r="G4" s="49">
         <f>A5*(1+(5*G3))</f>
-        <v>32588479.442328248</v>
+        <v>31064850.882135727</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>207</v>
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>26954392455.285076</v>
+        <v>17932180829.982067</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>208</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>0.37817999999999996</v>
+        <v>1.1017999999999998E-2</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>209</v>
       </c>
       <c r="M4" s="44"/>
-      <c r="N4" s="118" t="s">
+      <c r="N4" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="119"/>
+      <c r="O4" s="121"/>
       <c r="P4" s="44"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -12170,10 +12195,10 @@
         <v>211</v>
       </c>
       <c r="C5" s="47">
-        <f>Financials!K34*0.01</f>
-        <v>9.6600000000000005E-2</v>
-      </c>
-      <c r="D5" s="46" t="s">
+        <f>F14</f>
+        <v>5.8188818551623694E-2</v>
+      </c>
+      <c r="D5" s="110" t="s">
         <v>212</v>
       </c>
       <c r="E5" s="47">
@@ -12192,14 +12217,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>33648547978.285076</v>
+        <v>24626336352.982067</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>215</v>
       </c>
       <c r="K5" s="53" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>958.8</v>
+        <v>1082.8</v>
       </c>
       <c r="L5" s="54" t="s">
         <v>216</v>
@@ -12217,16 +12242,16 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57">
         <f>O20/F10</f>
-        <v>1.8397953108790341</v>
+        <v>2.8555006663427176</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>218</v>
       </c>
       <c r="C6" s="47">
-        <f>Financials!K190</f>
-        <v>0.14527173697454021</v>
-      </c>
-      <c r="D6" s="46" t="s">
+        <f>F17</f>
+        <v>7.7802833903884441E-2</v>
+      </c>
+      <c r="D6" s="110" t="s">
         <v>196</v>
       </c>
       <c r="E6" s="47">
@@ -12245,14 +12270,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>9.690745656876866E-2</v>
+        <v>0.11431253096557709</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>221</v>
       </c>
       <c r="K6" s="58">
         <f>I5/G4</f>
-        <v>1032.5289351972629</v>
+        <v>792.73956428819633</v>
       </c>
       <c r="L6" s="59" t="s">
         <v>222</v>
@@ -12270,14 +12295,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
         <f>O20/F12</f>
-        <v>32.947511450381683</v>
+        <v>49.073013293943873</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>224</v>
       </c>
       <c r="C7" s="62">
         <f>F15/A3</f>
-        <v>4.1945041430691055E-2</v>
+        <v>2.7246652336990401E-2</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>225</v>
@@ -12302,9 +12327,9 @@
       <c r="J7" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="K7" s="106">
+      <c r="K7" s="104">
         <f>K6/K5-1</f>
-        <v>7.6897095533231985E-2</v>
+        <v>-0.26787997387495721</v>
       </c>
       <c r="L7" s="59" t="s">
         <v>228</v>
@@ -12330,11 +12355,11 @@
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
       <c r="J8" s="69"/>
-      <c r="K8" s="108" cm="1">
-        <f t="array" ref="K8">_FV(L8,"Open")</f>
-        <v>0.93740000000000001</v>
-      </c>
-      <c r="L8" s="107" t="e" vm="3">
+      <c r="K8" s="106" cm="1">
+        <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="L8" s="105" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="M8" s="44"/>
@@ -12361,7 +12386,7 @@
       <c r="E9" s="74">
         <v>2022</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="109">
         <v>2023</v>
       </c>
       <c r="G9" s="75">
@@ -12376,7 +12401,7 @@
       <c r="J9" s="76">
         <v>2027</v>
       </c>
-      <c r="L9" s="105"/>
+      <c r="L9" s="103"/>
       <c r="M9" s="69"/>
       <c r="N9" s="55" t="s">
         <v>230</v>
@@ -12404,26 +12429,26 @@
         <v>9536506267</v>
       </c>
       <c r="F10" s="78">
-        <f>E10*1.23</f>
-        <v>11729902708.41</v>
+        <f>E10*1.22</f>
+        <v>11634537645.74</v>
       </c>
       <c r="G10" s="78">
         <f>F10*1.2</f>
-        <v>14075883250.091999</v>
+        <v>13961445174.887999</v>
       </c>
       <c r="H10" s="78">
         <f>G10*1.18</f>
-        <v>16609542235.108559</v>
+        <v>16474505306.367838</v>
       </c>
       <c r="I10" s="78">
         <f>H10*1.1</f>
-        <v>18270496458.619415</v>
+        <v>18121955837.004623</v>
       </c>
       <c r="J10" s="79">
         <f>I10*1.08</f>
-        <v>19732136175.308971</v>
-      </c>
-      <c r="K10" s="80" t="s">
+        <v>19571712303.964996</v>
+      </c>
+      <c r="K10" s="107" t="s">
         <v>232</v>
       </c>
       <c r="L10" s="69"/>
@@ -12437,50 +12462,50 @@
       <c r="P10" s="44"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82">
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.49400005706412187</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="81">
         <f t="shared" si="0"/>
         <v>0.53026583386911907</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="81">
         <f t="shared" si="0"/>
         <v>0.39872238436112273</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="82">
         <f t="shared" si="0"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="G11" s="82">
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="G11" s="81">
         <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="81">
         <f t="shared" si="0"/>
         <v>0.17999999999999994</v>
       </c>
-      <c r="I11" s="82">
+      <c r="I11" s="81">
         <f t="shared" si="0"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="83">
         <f t="shared" si="0"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="83">
         <f>SUM(F11:J11)/5</f>
-        <v>0.158</v>
+        <v>0.156</v>
       </c>
       <c r="L11" s="69"/>
       <c r="M11" s="69"/>
       <c r="N11" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="O11" s="85">
+      <c r="O11" s="84">
         <f>O9/O10</f>
         <v>-0.23066486008630413</v>
       </c>
@@ -12502,22 +12527,22 @@
       <c r="E12" s="78">
         <v>602075796</v>
       </c>
-      <c r="F12" s="86">
-        <v>655000000</v>
+      <c r="F12" s="85">
+        <v>677000000</v>
       </c>
       <c r="G12" s="78">
-        <v>808000000</v>
+        <v>835000000</v>
       </c>
       <c r="H12" s="78">
-        <v>1027000000</v>
+        <v>1048000000</v>
       </c>
       <c r="I12" s="78">
-        <v>1264000000</v>
+        <v>1326000000</v>
       </c>
       <c r="J12" s="79">
-        <v>1483000000</v>
-      </c>
-      <c r="K12" s="87" t="s">
+        <v>1694000000</v>
+      </c>
+      <c r="K12" s="86" t="s">
         <v>235</v>
       </c>
       <c r="L12" s="69"/>
@@ -12525,108 +12550,108 @@
       <c r="N12" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="O12" s="85">
+      <c r="O12" s="84">
         <f>O8*(1-O11)</f>
         <v>-0.75294079917113921</v>
       </c>
       <c r="P12" s="44"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82">
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.39443118204201255</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="81">
         <f t="shared" si="1"/>
         <v>0.67254794377492932</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="81">
         <f t="shared" si="1"/>
         <v>0.12713687022409315</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="82">
         <f t="shared" si="1"/>
-        <v>8.7902892545442812E-2</v>
-      </c>
-      <c r="G13" s="82">
+        <v>0.12444314237139675</v>
+      </c>
+      <c r="G13" s="81">
         <f t="shared" si="1"/>
-        <v>0.23358778625954191</v>
-      </c>
-      <c r="H13" s="82">
+        <v>0.23338257016248143</v>
+      </c>
+      <c r="H13" s="81">
         <f t="shared" si="1"/>
-        <v>0.27103960396039595</v>
-      </c>
-      <c r="I13" s="82">
+        <v>0.25508982035928152</v>
+      </c>
+      <c r="I13" s="81">
         <f t="shared" si="1"/>
-        <v>0.23076923076923084</v>
-      </c>
-      <c r="J13" s="84">
+        <v>0.26526717557251911</v>
+      </c>
+      <c r="J13" s="83">
         <f t="shared" si="1"/>
-        <v>0.173259493670886</v>
-      </c>
-      <c r="K13" s="84">
+        <v>0.2775263951734539</v>
+      </c>
+      <c r="K13" s="83">
         <f>SUM(F13:J13)/5</f>
-        <v>0.1993118014410995</v>
+        <v>0.23114182072782655</v>
       </c>
       <c r="L13" s="69"/>
       <c r="M13" s="69"/>
-      <c r="N13" s="118" t="s">
+      <c r="N13" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="O13" s="119"/>
+      <c r="O13" s="121"/>
       <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="89">
+      <c r="B14" s="87">
         <f>B12/B10</f>
         <v>7.6799531933769191E-2</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C14" s="87">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>7.1681163322795463E-2</v>
       </c>
-      <c r="D14" s="89">
+      <c r="D14" s="87">
         <f t="shared" si="2"/>
         <v>7.834598386072994E-2</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="87">
         <f t="shared" si="2"/>
         <v>6.3133791258903185E-2</v>
       </c>
-      <c r="F14" s="90">
+      <c r="F14" s="88">
         <f t="shared" si="2"/>
-        <v>5.5840190347903225E-2</v>
-      </c>
-      <c r="G14" s="89">
+        <v>5.8188818551623694E-2</v>
+      </c>
+      <c r="G14" s="87">
         <f t="shared" si="2"/>
-        <v>5.7403147329651155E-2</v>
-      </c>
-      <c r="H14" s="89">
+        <v>5.9807562149933276E-2</v>
+      </c>
+      <c r="H14" s="87">
         <f t="shared" si="2"/>
-        <v>6.1831926820305146E-2</v>
-      </c>
-      <c r="I14" s="89">
+        <v>6.3613442741429077E-2</v>
+      </c>
+      <c r="I14" s="87">
         <f t="shared" si="2"/>
-        <v>6.9182575463278481E-2</v>
-      </c>
-      <c r="J14" s="91">
+        <v>7.3170910023538302E-2</v>
+      </c>
+      <c r="J14" s="89">
         <f t="shared" si="2"/>
-        <v>7.515658653601294E-2</v>
-      </c>
-      <c r="K14" s="91"/>
+        <v>8.6553489735122238E-2</v>
+      </c>
+      <c r="K14" s="89"/>
       <c r="L14" s="69"/>
       <c r="M14" s="69"/>
       <c r="N14" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="O14" s="85">
+      <c r="O14" s="84">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="44"/>
     </row>
@@ -12646,22 +12671,22 @@
       <c r="E15" s="78">
         <v>2065077665</v>
       </c>
-      <c r="F15" s="86">
+      <c r="F15" s="85">
         <v>905200000</v>
       </c>
       <c r="G15" s="78">
-        <v>1165000000</v>
+        <v>1216000000</v>
       </c>
       <c r="H15" s="78">
-        <v>1465000000</v>
+        <v>1570000000</v>
       </c>
       <c r="I15" s="78">
-        <v>1498000000</v>
+        <v>1840000000</v>
       </c>
       <c r="J15" s="79">
-        <v>2396000000</v>
-      </c>
-      <c r="K15" s="87" t="s">
+        <v>1902000000</v>
+      </c>
+      <c r="K15" s="86" t="s">
         <v>240</v>
       </c>
       <c r="L15" s="69"/>
@@ -12669,141 +12694,141 @@
       <c r="N15" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="O15" s="92" cm="1">
+      <c r="O15" s="90" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.5694999999999999</v>
+        <v>1.877</v>
       </c>
       <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82">
+      <c r="A16" s="91"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>1.1195735707122765</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="81">
         <f t="shared" si="3"/>
         <v>0.64180687782609591</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="81">
         <f t="shared" si="3"/>
         <v>2.0699052160038311E-2</v>
       </c>
-      <c r="F16" s="83">
+      <c r="F16" s="82">
         <f t="shared" si="3"/>
         <v>-0.5616629750339196</v>
       </c>
-      <c r="G16" s="82">
+      <c r="G16" s="81">
         <f t="shared" si="3"/>
-        <v>0.28700839593460015</v>
-      </c>
-      <c r="H16" s="82">
+        <v>0.34334953601414053</v>
+      </c>
+      <c r="H16" s="81">
         <f t="shared" si="3"/>
-        <v>0.257510729613734</v>
-      </c>
-      <c r="I16" s="82">
+        <v>0.29111842105263164</v>
+      </c>
+      <c r="I16" s="81">
         <f t="shared" si="3"/>
-        <v>2.2525597269624553E-2</v>
-      </c>
-      <c r="J16" s="84">
+        <v>0.17197452229299359</v>
+      </c>
+      <c r="J16" s="83">
         <f t="shared" si="3"/>
-        <v>0.5994659546061416</v>
-      </c>
-      <c r="K16" s="84">
+        <v>3.3695652173913127E-2</v>
+      </c>
+      <c r="K16" s="83">
         <f>SUM(F16:J16)/5</f>
-        <v>0.12096954047803614</v>
+        <v>5.5695031299951861E-2</v>
       </c>
       <c r="L16" s="69"/>
       <c r="M16" s="69"/>
       <c r="N16" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="O16" s="85">
+      <c r="O16" s="84">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="44"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="89">
+      <c r="B17" s="87">
         <f>B15/B10</f>
         <v>0.19495206261180142</v>
       </c>
-      <c r="C17" s="89">
+      <c r="C17" s="87">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>0.27658314838343029</v>
       </c>
-      <c r="D17" s="89">
+      <c r="D17" s="87">
         <f t="shared" si="4"/>
         <v>0.29674328816358425</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="89">
         <f t="shared" si="4"/>
         <v>0.21654446682911196</v>
       </c>
-      <c r="F17" s="89">
+      <c r="F17" s="87">
         <f t="shared" si="4"/>
-        <v>7.717029053881222E-2</v>
-      </c>
-      <c r="G17" s="89">
+        <v>7.7802833903884441E-2</v>
+      </c>
+      <c r="G17" s="87">
         <f t="shared" si="4"/>
-        <v>8.2765676533469806E-2</v>
-      </c>
-      <c r="H17" s="89">
+        <v>8.7097000687807014E-2</v>
+      </c>
+      <c r="H17" s="87">
         <f t="shared" si="4"/>
-        <v>8.8202310410659249E-2</v>
-      </c>
-      <c r="I17" s="89">
+        <v>9.5298764412255391E-2</v>
+      </c>
+      <c r="I17" s="87">
         <f t="shared" si="4"/>
-        <v>8.1990109212018325E-2</v>
-      </c>
-      <c r="J17" s="91">
+        <v>0.10153429445196868</v>
+      </c>
+      <c r="J17" s="89">
         <f t="shared" si="4"/>
-        <v>0.12142628546209507</v>
-      </c>
-      <c r="K17" s="91"/>
+        <v>9.7181072890320255E-2</v>
+      </c>
+      <c r="K17" s="89"/>
       <c r="L17" s="69"/>
       <c r="M17" s="69"/>
-      <c r="N17" s="94" t="s">
+      <c r="N17" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="O17" s="95">
+      <c r="O17" s="93">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10580615500000001</v>
+        <v>0.12021133000000001</v>
       </c>
       <c r="P17" s="44"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="97">
+      <c r="B18" s="95">
         <v>0.20708940187742997</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="95">
         <v>0.20768639161626906</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="95">
         <v>0.22834712486937428</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="95">
         <v>0.19063492870048199</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="100"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98"/>
       <c r="L18" s="69"/>
       <c r="M18" s="69"/>
-      <c r="N18" s="118" t="s">
+      <c r="N18" s="120" t="s">
         <v>243</v>
       </c>
-      <c r="O18" s="119"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="44"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -12825,17 +12850,17 @@
       <c r="N19" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="O19" s="101">
+      <c r="O19" s="99">
         <f>O6+O7</f>
         <v>225969081</v>
       </c>
       <c r="P19" s="44"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
       <c r="F20" s="69"/>
       <c r="G20" s="69"/>
       <c r="H20" s="69"/>
@@ -12847,24 +12872,24 @@
       <c r="N20" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="O20" s="101">
+      <c r="O20" s="99">
         <f>A3</f>
-        <v>21580620000</v>
+        <v>33222430000</v>
       </c>
       <c r="P20" s="44"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109" t="str" cm="1">
+      <c r="A21" s="123" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Financial Technology (Fintech) &amp; Infrastructure</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="120" cm="1">
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="122" cm="1">
         <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2006</v>
       </c>
-      <c r="E21" s="120"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="69"/>
       <c r="G21" s="69"/>
       <c r="H21" s="69"/>
@@ -12875,21 +12900,21 @@
       <c r="N21" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="O21" s="101">
+      <c r="O21" s="99">
         <f>O19+O20</f>
-        <v>21806589081</v>
+        <v>33448399081</v>
       </c>
       <c r="P21" s="44"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="109" t="str" cm="1">
+      <c r="A22" s="111" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
       <c r="H22" s="69"/>
@@ -12901,18 +12926,18 @@
       <c r="N22" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="103">
+      <c r="O22" s="101">
         <f>(O19/O21)</f>
-        <v>1.036242211749136E-2</v>
+        <v>6.755751761176495E-3</v>
       </c>
       <c r="P22" s="44"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
       <c r="F23" s="69"/>
       <c r="G23" s="69"/>
       <c r="H23" s="69"/>
@@ -12921,21 +12946,21 @@
       <c r="K23" s="69"/>
       <c r="L23" s="69"/>
       <c r="M23" s="69"/>
-      <c r="N23" s="94" t="s">
+      <c r="N23" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="104">
+      <c r="O23" s="102">
         <f>O20/O21</f>
-        <v>0.98963757788250861</v>
+        <v>0.99324424823882351</v>
       </c>
       <c r="P23" s="44"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="109"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
       <c r="F24" s="69"/>
       <c r="G24" s="69"/>
       <c r="H24" s="69"/>
@@ -12944,18 +12969,18 @@
       <c r="K24" s="69"/>
       <c r="L24" s="69"/>
       <c r="M24" s="69"/>
-      <c r="N24" s="110" t="s">
+      <c r="N24" s="112" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="111"/>
+      <c r="O24" s="113"/>
       <c r="P24" s="44"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
       <c r="F25" s="69"/>
       <c r="G25" s="69"/>
       <c r="H25" s="69"/>
@@ -12964,19 +12989,19 @@
       <c r="K25" s="69"/>
       <c r="L25" s="69"/>
       <c r="M25" s="69"/>
-      <c r="N25" s="112">
+      <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.690745656876866E-2</v>
-      </c>
-      <c r="O25" s="113"/>
+        <v>0.11431253096557709</v>
+      </c>
+      <c r="O25" s="115"/>
       <c r="P25" s="44"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="109"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
       <c r="F26" s="69"/>
       <c r="G26" s="69"/>
       <c r="H26" s="69"/>
@@ -12990,11 +13015,11 @@
       <c r="P26" s="44"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
       <c r="F27" s="69"/>
       <c r="G27" s="69"/>
       <c r="H27" s="69"/>
@@ -13008,11 +13033,11 @@
       <c r="P27" s="44"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="109"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
@@ -13026,11 +13051,11 @@
       <c r="P28" s="44"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
       <c r="F29" s="69"/>
       <c r="G29" s="69"/>
       <c r="H29" s="69"/>
@@ -13044,11 +13069,11 @@
       <c r="P29" s="44"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="109"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="69"/>
       <c r="G30" s="69"/>
       <c r="H30" s="69"/>
@@ -13832,5 +13857,8 @@
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/OTCPK:ADYY.F/explorer/revenue_proj_growth" xr:uid="{85616112-D3D7-E443-93BE-8658C994E623}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError xmlns:x16r3="http://schemas.microsoft.com/office/spreadsheetml/2018/08/main" sqref="K5" x16r3:misleadingFormat="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Financials/Adyen.xlsx
+++ b/Financials/Adyen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07EC0E9-431C-C848-9411-9166D768A590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024DAED4-058B-D844-AE30-5C6CF61985F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1756,10 +1756,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1779,7 +1781,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1792,6 +1794,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1919,9 +1923,9 @@
     <v>Powered by Refinitiv</v>
     <v>18.690000000000001</v>
     <v>6.55</v>
-    <v>1.877</v>
-    <v>0.15</v>
-    <v>1.2886999999999999E-2</v>
+    <v>1.8802000000000001</v>
+    <v>0.33</v>
+    <v>2.6591E-2</v>
     <v>0</v>
     <v>0</v>
     <v>USD</v>
@@ -1931,24 +1935,24 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>11.81</v>
+    <v>12.9</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45262.048611111109</v>
+    <v>45269.048611111109</v>
     <v>0</v>
-    <v>11.6</v>
-    <v>33222430000</v>
+    <v>12.65</v>
+    <v>35840520000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>11.63</v>
-    <v>11.64</v>
-    <v>11.79</v>
-    <v>11.79</v>
+    <v>12.79</v>
+    <v>12.41</v>
+    <v>12.74</v>
+    <v>12.74</v>
     <v>31020010</v>
     <v>ADYEY</v>
     <v>Adyen NV (OTCM:ADYEY)</v>
-    <v>787433</v>
-    <v>78640</v>
+    <v>1123477</v>
+    <v>78890</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1972,9 +1976,9 @@
     <v>Powered by Refinitiv</v>
     <v>1699.2</v>
     <v>602.79999999999995</v>
-    <v>1.877</v>
-    <v>11.8</v>
-    <v>1.1017999999999998E-2</v>
+    <v>1.8802000000000001</v>
+    <v>31.4</v>
+    <v>2.7176999999999996E-2</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3883</v>
@@ -1982,24 +1986,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>1096.8</v>
+    <v>1204.5999999999999</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45261.708333333336</v>
+    <v>45268.708333333336</v>
     <v>3</v>
-    <v>1072</v>
-    <v>33222430000</v>
+    <v>1176.5999999999999</v>
+    <v>35840520000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>1072</v>
-    <v>58.839399999999998</v>
-    <v>1071</v>
-    <v>1082.8</v>
+    <v>1183</v>
+    <v>63.476199999999999</v>
+    <v>1155.4000000000001</v>
+    <v>1186.8</v>
     <v>31020010</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>72888</v>
-    <v>78640</v>
+    <v>127204</v>
+    <v>78890</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2017,17 +2021,17 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>0.97170000000000001</v>
+    <v>0.95750000000000002</v>
     <v>0.88670000000000004</v>
-    <v>2.9999999999999997E-4</v>
-    <v>3.2669999999999997E-4</v>
+    <v>2.5999999999999999E-3</v>
+    <v>2.807E-3</v>
     <v>EUR</v>
     <v>USD</v>
     <v>Currency Pair</v>
-    <v>45261.916666666664</v>
+    <v>45268.916666666664</v>
     <v>US Dollar/Euro FX Cross Rate</v>
-    <v>0.91839999999999999</v>
-    <v>0.91869999999999996</v>
+    <v>0.92630000000000001</v>
+    <v>0.92889999999999995</v>
     <v>USDEUR</v>
     <v>USD/EUR</v>
   </rv>
@@ -12040,7 +12044,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12089,7 +12093,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>33222430000</v>
+        <v>35840520000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>197</v>
@@ -12109,15 +12113,15 @@
         <v>199</v>
       </c>
       <c r="G3" s="39">
-        <f>AVERAGE(Financials!J129:O129)</f>
-        <v>2.891093983253083E-4</v>
+        <f>AVERAGE(Financials!H129:O129)</f>
+        <v>4.033108095273491E-3</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>200</v>
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>21828403908.421284</v>
+        <v>21380382394.685207</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>201</v>
@@ -12160,21 +12164,21 @@
       </c>
       <c r="G4" s="49">
         <f>A5*(1+(5*G3))</f>
-        <v>31064850.882135727</v>
+        <v>31645545.267232321</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>207</v>
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>17932180829.982067</v>
+        <v>17539850547.660679</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>208</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.1017999999999998E-2</v>
+        <v>2.7176999999999996E-2</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>209</v>
@@ -12217,14 +12221,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>24626336352.982067</v>
+        <v>24234006070.660679</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>215</v>
       </c>
       <c r="K5" s="53" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>1082.8</v>
+        <v>1186.8</v>
       </c>
       <c r="L5" s="54" t="s">
         <v>216</v>
@@ -12242,7 +12246,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57">
         <f>O20/F10</f>
-        <v>2.8555006663427176</v>
+        <v>3.0805280872612113</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>218</v>
@@ -12270,14 +12274,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>0.11431253096557709</v>
+        <v>0.11618405667452533</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>221</v>
       </c>
       <c r="K6" s="58">
         <f>I5/G4</f>
-        <v>792.73956428819633</v>
+        <v>765.79518115473934</v>
       </c>
       <c r="L6" s="59" t="s">
         <v>222</v>
@@ -12295,14 +12299,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
         <f>O20/F12</f>
-        <v>49.073013293943873</v>
+        <v>52.940206794682425</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>224</v>
       </c>
       <c r="C7" s="62">
         <f>F15/A3</f>
-        <v>2.7246652336990401E-2</v>
+        <v>2.5256329986283681E-2</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>225</v>
@@ -12329,7 +12333,7 @@
       </c>
       <c r="K7" s="104">
         <f>K6/K5-1</f>
-        <v>-0.26787997387495721</v>
+        <v>-0.35473948335461802</v>
       </c>
       <c r="L7" s="59" t="s">
         <v>228</v>
@@ -12357,7 +12361,7 @@
       <c r="J8" s="69"/>
       <c r="K8" s="106" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>0.91839999999999999</v>
+        <v>0.92630000000000001</v>
       </c>
       <c r="L8" s="105" t="e" vm="3">
         <v>#VALUE!</v>
@@ -12651,7 +12655,7 @@
       </c>
       <c r="O14" s="84">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
     </row>
@@ -12696,7 +12700,7 @@
       </c>
       <c r="O15" s="90" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.877</v>
+        <v>1.8802000000000001</v>
       </c>
       <c r="P15" s="44"/>
     </row>
@@ -12797,7 +12801,7 @@
       </c>
       <c r="O17" s="93">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.12021133000000001</v>
+        <v>0.12166375800000001</v>
       </c>
       <c r="P17" s="44"/>
     </row>
@@ -12874,7 +12878,7 @@
       </c>
       <c r="O20" s="99">
         <f>A3</f>
-        <v>33222430000</v>
+        <v>35840520000</v>
       </c>
       <c r="P20" s="44"/>
     </row>
@@ -12902,7 +12906,7 @@
       </c>
       <c r="O21" s="99">
         <f>O19+O20</f>
-        <v>33448399081</v>
+        <v>36066489081</v>
       </c>
       <c r="P21" s="44"/>
     </row>
@@ -12928,7 +12932,7 @@
       </c>
       <c r="O22" s="101">
         <f>(O19/O21)</f>
-        <v>6.755751761176495E-3</v>
+        <v>6.2653473281667881E-3</v>
       </c>
       <c r="P22" s="44"/>
     </row>
@@ -12951,7 +12955,7 @@
       </c>
       <c r="O23" s="102">
         <f>O20/O21</f>
-        <v>0.99324424823882351</v>
+        <v>0.99373465267183325</v>
       </c>
       <c r="P23" s="44"/>
     </row>
@@ -12991,7 +12995,7 @@
       <c r="M25" s="69"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.11431253096557709</v>
+        <v>0.11618405667452533</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="44"/>
